--- a/data/trans_orig/P6507-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6507-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A528EB7E-D927-44B8-B8C8-4A623746CF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E31A156-B8BD-4B23-B8CE-0B6119CEE4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0F3F27E7-9A4D-4E03-9286-EDDB4E4CBF21}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2A74F040-16CF-4C31-B5AC-3DA799A2CB3F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="205">
   <si>
     <t>Población según la exposición a radiaciones como rayos X, soldadura, rayos láser durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -74,16 +74,16 @@
     <t>88,51%</t>
   </si>
   <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>78,31%</t>
+    <t>78,41%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,7 +92,7 @@
     <t>89,86%</t>
   </si>
   <si>
-    <t>80,79%</t>
+    <t>81,85%</t>
   </si>
   <si>
     <t>95,13%</t>
@@ -107,22 +107,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>13,46%</t>
+    <t>12,05%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>17,42%</t>
+    <t>17,88%</t>
   </si>
   <si>
     <t>3,77%</t>
   </si>
   <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -131,25 +131,25 @@
     <t>5,62%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>17,65%</t>
+    <t>19,24%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -158,7 +158,7 @@
     <t>1,99%</t>
   </si>
   <si>
-    <t>10,32%</t>
+    <t>10,37%</t>
   </si>
   <si>
     <t>0%</t>
@@ -170,7 +170,7 @@
     <t>1,39%</t>
   </si>
   <si>
-    <t>7,54%</t>
+    <t>7,72%</t>
   </si>
   <si>
     <t>100%</t>
@@ -182,457 +182,445 @@
     <t>84,07%</t>
   </si>
   <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
   </si>
   <si>
     <t>95,37%</t>
   </si>
   <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
   </si>
   <si>
     <t>87,31%</t>
   </si>
   <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
   </si>
   <si>
     <t>9,24%</t>
   </si>
   <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
   </si>
   <si>
     <t>7,69%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
   </si>
   <si>
     <t>5,79%</t>
   </si>
   <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>86,52%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
     <t>3,96%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
   </si>
   <si>
     <t>3,76%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
+    <t>1,93%</t>
   </si>
   <si>
     <t>4,18%</t>
   </si>
   <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>1,88%</t>
+    <t>1,84%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>0,66%</t>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>85,76%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
   </si>
   <si>
     <t>87,92%</t>
   </si>
   <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
   </si>
   <si>
     <t>8,53%</t>
   </si>
   <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
+    <t>4,12%</t>
+  </si>
+  <si>
     <t>6,57%</t>
   </si>
   <si>
-    <t>5,7%</t>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>5,46%</t>
   </si>
   <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
   </si>
   <si>
     <t>2,3%</t>
@@ -641,28 +629,22 @@
     <t>4,04%</t>
   </si>
   <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
   </si>
   <si>
     <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
   </si>
   <si>
     <t>2,0%</t>
@@ -1080,7 +1062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34348966-4E1D-4631-8109-4F86FBD93971}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64340BB6-F2C7-4260-97A6-6512564A1CB6}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1823,10 +1805,10 @@
         <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -1835,13 +1817,13 @@
         <v>2035</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -1850,13 +1832,13 @@
         <v>32765</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,10 +1853,10 @@
         <v>15857</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>107</v>
@@ -1892,7 +1874,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -1901,13 +1883,13 @@
         <v>16924</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1963,7 +1945,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1975,13 +1957,13 @@
         <v>346244</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H19" s="7">
         <v>201</v>
@@ -1990,13 +1972,13 @@
         <v>200700</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M19" s="7">
         <v>517</v>
@@ -2005,13 +1987,13 @@
         <v>546944</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,13 +2008,13 @@
         <v>33318</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -2041,13 +2023,13 @@
         <v>6008</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K20" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M20" s="7">
         <v>39</v>
@@ -2056,13 +2038,13 @@
         <v>39325</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2077,13 +2059,13 @@
         <v>19305</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2092,13 +2074,13 @@
         <v>2849</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -2107,13 +2089,13 @@
         <v>22153</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>66</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,13 +2110,13 @@
         <v>7567</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2143,13 +2125,13 @@
         <v>2458</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -2158,13 +2140,13 @@
         <v>10025</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>94</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2220,7 +2202,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2232,13 +2214,13 @@
         <v>463928</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H24" s="7">
         <v>348</v>
@@ -2247,13 +2229,13 @@
         <v>369350</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="M24" s="7">
         <v>826</v>
@@ -2262,13 +2244,13 @@
         <v>833277</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2283,13 +2265,13 @@
         <v>49517</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2298,13 +2280,13 @@
         <v>8136</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>26</v>
       </c>
       <c r="M25" s="7">
         <v>59</v>
@@ -2313,13 +2295,13 @@
         <v>57653</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,13 +2316,13 @@
         <v>31885</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -2349,13 +2331,13 @@
         <v>7466</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>68</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="M26" s="7">
         <v>41</v>
@@ -2364,13 +2346,13 @@
         <v>39352</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>128</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2385,13 +2367,13 @@
         <v>9691</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -2400,13 +2382,13 @@
         <v>2158</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="M27" s="7">
         <v>13</v>
@@ -2415,13 +2397,13 @@
         <v>11848</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2489,13 +2471,13 @@
         <v>1600710</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H29" s="7">
         <v>932</v>
@@ -2507,10 +2489,10 @@
         <v>19</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M29" s="7">
         <v>2456</v>
@@ -2519,13 +2501,13 @@
         <v>2574208</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2540,13 +2522,13 @@
         <v>162522</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H30" s="7">
         <v>28</v>
@@ -2555,13 +2537,13 @@
         <v>29934</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>39</v>
+        <v>137</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="M30" s="7">
         <v>187</v>
@@ -2570,13 +2552,13 @@
         <v>192457</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>44</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2591,13 +2573,13 @@
         <v>104049</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -2609,10 +2591,10 @@
         <v>43</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M31" s="7">
         <v>117</v>
@@ -2621,13 +2603,13 @@
         <v>118290</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,13 +2624,13 @@
         <v>37217</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>205</v>
+        <v>104</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -2657,13 +2639,13 @@
         <v>5683</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>78</v>
+        <v>201</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c r="M32" s="7">
         <v>42</v>
@@ -2672,13 +2654,13 @@
         <v>42900</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>208</v>
+        <v>27</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,7 +2716,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6507-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6507-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E31A156-B8BD-4B23-B8CE-0B6119CEE4B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94BF9C0B-DEA1-40E2-8C62-3310F8C9067B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2A74F040-16CF-4C31-B5AC-3DA799A2CB3F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1E0B8064-370E-4AFA-A8CE-56119DEB1CC1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="214">
   <si>
     <t>Población según la exposición a radiaciones como rayos X, soldadura, rayos láser durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -74,16 +74,16 @@
     <t>88,51%</t>
   </si>
   <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>78,41%</t>
+    <t>78,72%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,562 +92,589 @@
     <t>89,86%</t>
   </si>
   <si>
-    <t>81,85%</t>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>84,07%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>79,83%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>82,3%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
   </si>
   <si>
     <t>95,13%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>86,52%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>88,75%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>85,76%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
     <t>1,47%</t>
   </si>
   <si>
-    <t>2,0%</t>
+    <t>1,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1062,7 +1089,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64340BB6-F2C7-4260-97A6-6512564A1CB6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFFB2FD-673D-428C-A9C4-91CB97AFDB3A}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1805,10 +1832,10 @@
         <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -1817,13 +1844,13 @@
         <v>2035</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -1832,13 +1859,13 @@
         <v>32765</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1853,13 +1880,13 @@
         <v>15857</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1868,13 +1895,13 @@
         <v>1067</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -1883,13 +1910,13 @@
         <v>16924</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1945,7 +1972,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1957,13 +1984,13 @@
         <v>346244</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H19" s="7">
         <v>201</v>
@@ -1972,13 +1999,13 @@
         <v>200700</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M19" s="7">
         <v>517</v>
@@ -1987,13 +2014,13 @@
         <v>546944</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2008,13 +2035,13 @@
         <v>33318</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>28</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -2023,13 +2050,13 @@
         <v>6008</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>39</v>
@@ -2038,13 +2065,13 @@
         <v>39325</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2059,13 +2086,13 @@
         <v>19305</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>105</v>
+        <v>134</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2074,13 +2101,13 @@
         <v>2849</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -2089,13 +2116,13 @@
         <v>22153</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>66</v>
+        <v>139</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2110,10 +2137,10 @@
         <v>7567</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>139</v>
@@ -2125,13 +2152,13 @@
         <v>2458</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M22" s="7">
         <v>10</v>
@@ -2143,10 +2170,10 @@
         <v>94</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2202,7 +2229,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2214,13 +2241,13 @@
         <v>463928</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="H24" s="7">
         <v>348</v>
@@ -2229,13 +2256,13 @@
         <v>369350</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M24" s="7">
         <v>826</v>
@@ -2244,13 +2271,13 @@
         <v>833277</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,13 +2292,13 @@
         <v>49517</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2280,13 +2307,13 @@
         <v>8136</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="M25" s="7">
         <v>59</v>
@@ -2295,13 +2322,13 @@
         <v>57653</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,13 +2343,13 @@
         <v>31885</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -2331,13 +2358,13 @@
         <v>7466</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="M26" s="7">
         <v>41</v>
@@ -2346,13 +2373,13 @@
         <v>39352</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,13 +2394,13 @@
         <v>9691</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="H27" s="7">
         <v>2</v>
@@ -2382,13 +2409,13 @@
         <v>2158</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K27" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="M27" s="7">
         <v>13</v>
@@ -2397,13 +2424,13 @@
         <v>11848</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2471,13 +2498,13 @@
         <v>1600710</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H29" s="7">
         <v>932</v>
@@ -2486,13 +2513,13 @@
         <v>973497</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="M29" s="7">
         <v>2456</v>
@@ -2501,13 +2528,13 @@
         <v>2574208</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2522,13 +2549,13 @@
         <v>162522</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="H30" s="7">
         <v>28</v>
@@ -2537,13 +2564,13 @@
         <v>29934</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="M30" s="7">
         <v>187</v>
@@ -2552,13 +2579,13 @@
         <v>192457</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2573,13 +2600,13 @@
         <v>104049</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -2591,10 +2618,10 @@
         <v>43</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>194</v>
+        <v>68</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="M31" s="7">
         <v>117</v>
@@ -2603,13 +2630,13 @@
         <v>118290</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,13 +2651,13 @@
         <v>37217</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -2639,13 +2666,13 @@
         <v>5683</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>110</v>
+        <v>210</v>
       </c>
       <c r="M32" s="7">
         <v>42</v>
@@ -2654,13 +2681,13 @@
         <v>42900</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>27</v>
+        <v>212</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,7 +2743,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6507-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6507-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94BF9C0B-DEA1-40E2-8C62-3310F8C9067B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72533A47-17C8-4B11-929A-9E145BCEB67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1E0B8064-370E-4AFA-A8CE-56119DEB1CC1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6719EC5D-A1B3-4DD5-96E2-A8E713F7E365}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="211">
   <si>
     <t>Población según la exposición a radiaciones como rayos X, soldadura, rayos láser durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -74,16 +74,16 @@
     <t>88,51%</t>
   </si>
   <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
   </si>
   <si>
     <t>93,0%</t>
   </si>
   <si>
-    <t>78,72%</t>
+    <t>78,31%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -92,10 +92,10 @@
     <t>89,86%</t>
   </si>
   <si>
-    <t>82,18%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>95,13%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -107,22 +107,22 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>11,62%</t>
+    <t>13,46%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>17,87%</t>
+    <t>17,42%</t>
   </si>
   <si>
     <t>3,77%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -131,25 +131,25 @@
     <t>5,62%</t>
   </si>
   <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
   </si>
   <si>
     <t>3,46%</t>
   </si>
   <si>
-    <t>17,34%</t>
+    <t>17,65%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -158,7 +158,7 @@
     <t>1,99%</t>
   </si>
   <si>
-    <t>9,94%</t>
+    <t>10,32%</t>
   </si>
   <si>
     <t>0%</t>
@@ -170,7 +170,7 @@
     <t>1,39%</t>
   </si>
   <si>
-    <t>6,88%</t>
+    <t>7,54%</t>
   </si>
   <si>
     <t>100%</t>
@@ -182,79 +182,79 @@
     <t>84,07%</t>
   </si>
   <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
+    <t>79,24%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
   </si>
   <si>
     <t>95,37%</t>
   </si>
   <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
   </si>
   <si>
     <t>87,31%</t>
   </si>
   <si>
-    <t>84,12%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
+    <t>83,94%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
   </si>
   <si>
     <t>9,24%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
   </si>
   <si>
     <t>3,84%</t>
   </si>
   <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
   </si>
   <si>
     <t>7,69%</t>
   </si>
   <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
   </si>
   <si>
     <t>5,79%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
   </si>
   <si>
     <t>0,79%</t>
   </si>
   <si>
-    <t>4,34%</t>
+    <t>3,96%</t>
   </si>
   <si>
     <t>4,35%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
   </si>
   <si>
     <t>0,91%</t>
@@ -263,7 +263,7 @@
     <t>0,28%</t>
   </si>
   <si>
-    <t>2,55%</t>
+    <t>2,47%</t>
   </si>
   <si>
     <t>1,51%</t>
@@ -275,7 +275,7 @@
     <t>0,2%</t>
   </si>
   <si>
-    <t>1,72%</t>
+    <t>1,76%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -284,262 +284,271 @@
     <t>83,21%</t>
   </si>
   <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
   </si>
   <si>
     <t>95,16%</t>
   </si>
   <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
   </si>
   <si>
     <t>87,08%</t>
   </si>
   <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
   </si>
   <si>
     <t>8,45%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
+    <t>0,78%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
     <t>Capitales</t>
   </si>
   <si>
     <t>83,59%</t>
   </si>
   <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
   </si>
   <si>
     <t>95,41%</t>
   </si>
   <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
   </si>
   <si>
     <t>88,45%</t>
   </si>
   <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
   </si>
   <si>
     <t>8,92%</t>
   </si>
   <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
   </si>
   <si>
     <t>6,12%</t>
   </si>
   <si>
-    <t>7,84%</t>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
   </si>
   <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
   </si>
   <si>
     <t>1,93%</t>
@@ -548,124 +557,103 @@
     <t>0,83%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
+    <t>3,0%</t>
   </si>
   <si>
     <t>1,75%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
   </si>
   <si>
     <t>0,56%</t>
   </si>
   <si>
-    <t>1,9%</t>
+    <t>1,88%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
+    <t>0,66%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>82,3%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>95,13%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
   </si>
   <si>
     <t>87,92%</t>
   </si>
   <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
   </si>
   <si>
     <t>8,53%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
   </si>
   <si>
     <t>2,93%</t>
   </si>
   <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
     <t>6,57%</t>
   </si>
   <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
+    <t>5,7%</t>
   </si>
   <si>
     <t>5,46%</t>
   </si>
   <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
   </si>
   <si>
     <t>1,95%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
   </si>
   <si>
     <t>1,28%</t>
@@ -674,7 +662,10 @@
     <t>1,47%</t>
   </si>
   <si>
-    <t>1,06%</t>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1089,7 +1080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AFFB2FD-673D-428C-A9C4-91CB97AFDB3A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA21AB5-EB54-474D-AE98-5E5AC51E1137}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1859,13 +1850,13 @@
         <v>32765</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1880,13 +1871,13 @@
         <v>15857</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1895,13 +1886,13 @@
         <v>1067</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -1910,13 +1901,13 @@
         <v>16924</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,7 +1963,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -1984,13 +1975,13 @@
         <v>346244</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H19" s="7">
         <v>201</v>
@@ -1999,13 +1990,13 @@
         <v>200700</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M19" s="7">
         <v>517</v>
@@ -2014,13 +2005,13 @@
         <v>546944</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2035,13 +2026,13 @@
         <v>33318</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -2050,13 +2041,13 @@
         <v>6008</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M20" s="7">
         <v>39</v>
@@ -2065,13 +2056,13 @@
         <v>39325</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2086,13 +2077,13 @@
         <v>19305</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -2101,13 +2092,13 @@
         <v>2849</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -2116,13 +2107,13 @@
         <v>22153</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2137,13 +2128,13 @@
         <v>7567</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
@@ -2167,13 +2158,13 @@
         <v>10025</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2229,7 +2220,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2241,13 +2232,13 @@
         <v>463928</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H24" s="7">
         <v>348</v>
@@ -2256,13 +2247,13 @@
         <v>369350</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="M24" s="7">
         <v>826</v>
@@ -2271,13 +2262,13 @@
         <v>833277</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,13 +2283,13 @@
         <v>49517</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2307,13 +2298,13 @@
         <v>8136</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M25" s="7">
         <v>59</v>
@@ -2322,13 +2313,13 @@
         <v>57653</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>133</v>
+        <v>166</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2334,13 @@
         <v>31885</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="H26" s="7">
         <v>7</v>
@@ -2358,13 +2349,13 @@
         <v>7466</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="M26" s="7">
         <v>41</v>
@@ -2373,13 +2364,13 @@
         <v>39352</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,7 +2421,7 @@
         <v>180</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>181</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,13 +2489,13 @@
         <v>1600710</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H29" s="7">
         <v>932</v>
@@ -2513,13 +2504,13 @@
         <v>973497</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M29" s="7">
         <v>2456</v>
@@ -2528,13 +2519,13 @@
         <v>2574208</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2549,13 +2540,13 @@
         <v>162522</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="H30" s="7">
         <v>28</v>
@@ -2564,13 +2555,13 @@
         <v>29934</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>195</v>
+        <v>39</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>196</v>
+        <v>164</v>
       </c>
       <c r="M30" s="7">
         <v>187</v>
@@ -2579,13 +2570,13 @@
         <v>192457</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>199</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2600,13 +2591,13 @@
         <v>104049</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H31" s="7">
         <v>14</v>
@@ -2618,10 +2609,10 @@
         <v>43</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>68</v>
+        <v>198</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="M31" s="7">
         <v>117</v>
@@ -2630,13 +2621,13 @@
         <v>118290</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2651,13 +2642,13 @@
         <v>37217</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -2669,10 +2660,10 @@
         <v>177</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="M32" s="7">
         <v>42</v>
@@ -2681,13 +2672,13 @@
         <v>42900</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,7 +2734,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6507-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6507-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72533A47-17C8-4B11-929A-9E145BCEB67F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81641B11-CC54-4B2D-A60E-481755C85446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6719EC5D-A1B3-4DD5-96E2-A8E713F7E365}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{7DF026F4-5A05-4D98-8805-7D03E2333E2D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="187">
   <si>
     <t>Población según la exposición a radiaciones como rayos X, soldadura, rayos láser durante las tareas de su trabajo en 2007 (Tasa respuesta: 43,03%)</t>
   </si>
@@ -65,595 +65,523 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Nunca</t>
   </si>
   <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>89,86%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>95,0%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>81,22%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>83,59%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
   </si>
   <si>
     <t>95,13%</t>
   </si>
   <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
   </si>
   <si>
     <t>1,99%</t>
   </si>
   <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>84,07%</t>
-  </si>
-  <si>
-    <t>79,24%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
   </si>
   <si>
     <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>81,22%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>85,56%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>83,59%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
   </si>
   <si>
     <t>1,28%</t>
@@ -1080,8 +1008,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA21AB5-EB54-474D-AE98-5E5AC51E1137}">
-  <dimension ref="A1:Q34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4EE895-81E2-4771-A478-C0547BF2254A}">
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1198,10 +1126,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>44</v>
+        <v>310</v>
       </c>
       <c r="D4" s="7">
-        <v>50387</v>
+        <v>325471</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1213,10 +1141,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="I4" s="7">
-        <v>22779</v>
+        <v>148672</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1228,10 +1156,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>69</v>
+        <v>455</v>
       </c>
       <c r="N4" s="7">
-        <v>73165</v>
+        <v>474144</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1249,10 +1177,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7">
-        <v>2206</v>
+        <v>32447</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1264,106 +1192,106 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>867</v>
+        <v>5943</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="N5" s="7">
-        <v>3073</v>
+        <v>38390</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="D6" s="7">
-        <v>3199</v>
+        <v>22130</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="7">
-        <v>847</v>
+        <v>1890</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="N6" s="7">
-        <v>4047</v>
+        <v>24020</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" s="7">
-        <v>1134</v>
+        <v>4102</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1372,28 +1300,28 @@
         <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N7" s="7">
-        <v>1134</v>
+        <v>4102</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1402,102 +1330,102 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>50</v>
+        <v>367</v>
       </c>
       <c r="D8" s="7">
-        <v>56926</v>
+        <v>384150</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="I8" s="7">
-        <v>24493</v>
+        <v>156505</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
-        <v>77</v>
+        <v>520</v>
       </c>
       <c r="N8" s="7">
-        <v>81419</v>
+        <v>540655</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="7">
-        <v>266</v>
+        <v>420</v>
       </c>
       <c r="D9" s="7">
-        <v>275084</v>
+        <v>465067</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>120</v>
+        <v>238</v>
       </c>
       <c r="I9" s="7">
-        <v>125894</v>
+        <v>254775</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>386</v>
+        <v>658</v>
       </c>
       <c r="N9" s="7">
-        <v>400977</v>
+        <v>719843</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1506,151 +1434,151 @@
         <v>20</v>
       </c>
       <c r="C10" s="7">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D10" s="7">
-        <v>30242</v>
+        <v>47241</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>5076</v>
+        <v>9849</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="N10" s="7">
-        <v>35317</v>
+        <v>57089</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="7">
         <v>29</v>
       </c>
-      <c r="C11" s="7">
-        <v>19</v>
-      </c>
       <c r="D11" s="7">
-        <v>18931</v>
+        <v>30730</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>1043</v>
+        <v>2035</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M11" s="7">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="N11" s="7">
-        <v>19973</v>
+        <v>32765</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D12" s="7">
-        <v>2967</v>
+        <v>15857</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H12" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>0</v>
+        <v>1067</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M12" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N12" s="7">
-        <v>2967</v>
+        <v>16924</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,102 +1587,102 @@
         <v>3</v>
       </c>
       <c r="C13" s="7">
-        <v>317</v>
+        <v>507</v>
       </c>
       <c r="D13" s="7">
-        <v>327223</v>
+        <v>558895</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="I13" s="7">
-        <v>132012</v>
+        <v>267726</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M13" s="7">
-        <v>443</v>
+        <v>756</v>
       </c>
       <c r="N13" s="7">
-        <v>459235</v>
+        <v>826621</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="7">
-        <v>420</v>
+        <v>316</v>
       </c>
       <c r="D14" s="7">
-        <v>465067</v>
+        <v>346244</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="I14" s="7">
-        <v>254775</v>
+        <v>200700</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
-        <v>658</v>
+        <v>517</v>
       </c>
       <c r="N14" s="7">
-        <v>719843</v>
+        <v>546944</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1763,151 +1691,151 @@
         <v>20</v>
       </c>
       <c r="C15" s="7">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D15" s="7">
-        <v>47241</v>
+        <v>33318</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="H15" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I15" s="7">
-        <v>9849</v>
+        <v>6008</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M15" s="7">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="N15" s="7">
-        <v>57089</v>
+        <v>39325</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" s="7">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D16" s="7">
-        <v>30730</v>
+        <v>19305</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" s="7">
-        <v>2035</v>
+        <v>2849</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="M16" s="7">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="N16" s="7">
-        <v>32765</v>
+        <v>22153</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C17" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>15857</v>
+        <v>7567</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="7">
-        <v>1067</v>
+        <v>2458</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="M17" s="7">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N17" s="7">
-        <v>16924</v>
+        <v>10025</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1916,102 +1844,102 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>507</v>
+        <v>375</v>
       </c>
       <c r="D18" s="7">
-        <v>558895</v>
+        <v>406434</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H18" s="7">
-        <v>249</v>
+        <v>212</v>
       </c>
       <c r="I18" s="7">
-        <v>267726</v>
+        <v>212014</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M18" s="7">
-        <v>756</v>
+        <v>587</v>
       </c>
       <c r="N18" s="7">
-        <v>826621</v>
+        <v>618448</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>316</v>
+        <v>478</v>
       </c>
       <c r="D19" s="7">
-        <v>346244</v>
+        <v>463928</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H19" s="7">
-        <v>201</v>
+        <v>348</v>
       </c>
       <c r="I19" s="7">
-        <v>200700</v>
+        <v>369350</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
-        <v>517</v>
+        <v>826</v>
       </c>
       <c r="N19" s="7">
-        <v>546944</v>
+        <v>833277</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,151 +1948,151 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="D20" s="7">
-        <v>33318</v>
+        <v>49517</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="H20" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I20" s="7">
-        <v>6008</v>
+        <v>8136</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="M20" s="7">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="N20" s="7">
-        <v>39325</v>
+        <v>57653</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D21" s="7">
-        <v>19305</v>
+        <v>31885</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="G21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H21" s="7">
+        <v>7</v>
+      </c>
+      <c r="I21" s="7">
+        <v>7466</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M21" s="7">
+        <v>41</v>
+      </c>
+      <c r="N21" s="7">
+        <v>39352</v>
+      </c>
+      <c r="O21" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H21" s="7">
-        <v>3</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2849</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="M21" s="7">
-        <v>21</v>
-      </c>
-      <c r="N21" s="7">
-        <v>22153</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C22" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D22" s="7">
-        <v>7567</v>
+        <v>9691</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H22" s="7">
         <v>2</v>
       </c>
       <c r="I22" s="7">
-        <v>2458</v>
+        <v>2158</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N22" s="7">
-        <v>10025</v>
+        <v>11848</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,102 +2101,102 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>375</v>
+        <v>574</v>
       </c>
       <c r="D23" s="7">
-        <v>406434</v>
+        <v>555020</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H23" s="7">
-        <v>212</v>
+        <v>365</v>
       </c>
       <c r="I23" s="7">
-        <v>212014</v>
+        <v>387110</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M23" s="7">
-        <v>587</v>
+        <v>939</v>
       </c>
       <c r="N23" s="7">
-        <v>618448</v>
+        <v>942130</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>3</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>478</v>
+        <v>1524</v>
       </c>
       <c r="D24" s="7">
-        <v>463928</v>
+        <v>1600710</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="H24" s="7">
-        <v>348</v>
+        <v>932</v>
       </c>
       <c r="I24" s="7">
-        <v>369350</v>
+        <v>973497</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M24" s="7">
-        <v>826</v>
+        <v>2456</v>
       </c>
       <c r="N24" s="7">
-        <v>833277</v>
+        <v>2574208</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2277,151 +2205,151 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>51</v>
+        <v>159</v>
       </c>
       <c r="D25" s="7">
-        <v>49517</v>
+        <v>162522</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H25" s="7">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="I25" s="7">
-        <v>8136</v>
+        <v>29934</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="M25" s="7">
-        <v>59</v>
+        <v>187</v>
       </c>
       <c r="N25" s="7">
-        <v>57653</v>
+        <v>192457</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="D26" s="7">
-        <v>31885</v>
+        <v>104049</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H26" s="7">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I26" s="7">
-        <v>7466</v>
+        <v>14240</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>26</v>
+        <v>174</v>
       </c>
       <c r="M26" s="7">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="N26" s="7">
-        <v>39352</v>
+        <v>118290</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C27" s="7">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D27" s="7">
-        <v>9691</v>
+        <v>37217</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="H27" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I27" s="7">
-        <v>2158</v>
+        <v>5683</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>22</v>
+        <v>181</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M27" s="7">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="N27" s="7">
-        <v>11848</v>
+        <v>42900</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>110</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,319 +2358,61 @@
         <v>3</v>
       </c>
       <c r="C28" s="7">
-        <v>574</v>
+        <v>1823</v>
       </c>
       <c r="D28" s="7">
-        <v>555020</v>
+        <v>1904499</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H28" s="7">
-        <v>365</v>
+        <v>979</v>
       </c>
       <c r="I28" s="7">
-        <v>387110</v>
+        <v>1023355</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M28" s="7">
-        <v>939</v>
+        <v>2802</v>
       </c>
       <c r="N28" s="7">
-        <v>942130</v>
+        <v>2927854</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1524</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1600710</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H29" s="7">
-        <v>932</v>
-      </c>
-      <c r="I29" s="7">
-        <v>973497</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M29" s="7">
-        <v>2456</v>
-      </c>
-      <c r="N29" s="7">
-        <v>2574208</v>
-      </c>
-      <c r="O29" s="7" t="s">
+      <c r="A29" t="s">
         <v>186</v>
       </c>
-      <c r="P29" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="7">
-        <v>159</v>
-      </c>
-      <c r="D30" s="7">
-        <v>162522</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H30" s="7">
-        <v>28</v>
-      </c>
-      <c r="I30" s="7">
-        <v>29934</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M30" s="7">
-        <v>187</v>
-      </c>
-      <c r="N30" s="7">
-        <v>192457</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="7">
-        <v>103</v>
-      </c>
-      <c r="D31" s="7">
-        <v>104049</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="H31" s="7">
-        <v>14</v>
-      </c>
-      <c r="I31" s="7">
-        <v>14240</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="M31" s="7">
-        <v>117</v>
-      </c>
-      <c r="N31" s="7">
-        <v>118290</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="7">
-        <v>37</v>
-      </c>
-      <c r="D32" s="7">
-        <v>37217</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H32" s="7">
-        <v>5</v>
-      </c>
-      <c r="I32" s="7">
-        <v>5683</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="M32" s="7">
-        <v>42</v>
-      </c>
-      <c r="N32" s="7">
-        <v>42900</v>
-      </c>
-      <c r="O32" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="7">
-        <v>1823</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1904499</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="H33" s="7">
-        <v>979</v>
-      </c>
-      <c r="I33" s="7">
-        <v>1023355</v>
-      </c>
-      <c r="J33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M33" s="7">
-        <v>2802</v>
-      </c>
-      <c r="N33" s="7">
-        <v>2927854</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>210</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A23"/>
     <mergeCell ref="A24:A28"/>
-    <mergeCell ref="A29:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
